--- a/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H2">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>933.2289726604888</v>
+        <v>1254.416438689982</v>
       </c>
       <c r="R2">
-        <v>933.2289726604888</v>
+        <v>11289.74794820984</v>
       </c>
       <c r="S2">
-        <v>0.01780832562864927</v>
+        <v>0.02088900939305456</v>
       </c>
       <c r="T2">
-        <v>0.01780832562864927</v>
+        <v>0.02088900939305457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H3">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>4698.036080227873</v>
+        <v>5105.994745731397</v>
       </c>
       <c r="R3">
-        <v>4698.036080227873</v>
+        <v>45953.95271158257</v>
       </c>
       <c r="S3">
-        <v>0.08965019173518335</v>
+        <v>0.08502692480326322</v>
       </c>
       <c r="T3">
-        <v>0.08965019173518335</v>
+        <v>0.08502692480326327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H4">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>4794.445741092886</v>
+        <v>5942.713708971247</v>
       </c>
       <c r="R4">
-        <v>4794.445741092886</v>
+        <v>53484.42338074122</v>
       </c>
       <c r="S4">
-        <v>0.09148992741070272</v>
+        <v>0.0989602803807117</v>
       </c>
       <c r="T4">
-        <v>0.09148992741070272</v>
+        <v>0.09896028038071172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H5">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I5">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J5">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>1415.09302684561</v>
+        <v>1676.64727440446</v>
       </c>
       <c r="R5">
-        <v>1415.09302684561</v>
+        <v>15089.82546964015</v>
       </c>
       <c r="S5">
-        <v>0.02700348805615739</v>
+        <v>0.0279201544109626</v>
       </c>
       <c r="T5">
-        <v>0.02700348805615739</v>
+        <v>0.02792015441096261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H6">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>1779.039903240486</v>
+        <v>2214.983550850939</v>
       </c>
       <c r="R6">
-        <v>1779.039903240486</v>
+        <v>19934.85195765845</v>
       </c>
       <c r="S6">
-        <v>0.03394849799074248</v>
+        <v>0.03688473043888541</v>
       </c>
       <c r="T6">
-        <v>0.03394849799074248</v>
+        <v>0.03688473043888543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H7">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>8955.994614870973</v>
+        <v>9015.900958964919</v>
       </c>
       <c r="R7">
-        <v>8955.994614870973</v>
+        <v>81143.10863068426</v>
       </c>
       <c r="S7">
-        <v>0.1709026113659621</v>
+        <v>0.1501361382152715</v>
       </c>
       <c r="T7">
-        <v>0.1709026113659621</v>
+        <v>0.1501361382152716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H8">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J8">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>9139.782987029817</v>
+        <v>10493.33595032774</v>
       </c>
       <c r="R8">
-        <v>9139.782987029817</v>
+        <v>94440.0235529497</v>
       </c>
       <c r="S8">
-        <v>0.1744097497789856</v>
+        <v>0.1747389355482175</v>
       </c>
       <c r="T8">
-        <v>0.1744097497789856</v>
+        <v>0.1747389355482176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H9">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J9">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>2697.630522955887</v>
+        <v>2960.536883001388</v>
       </c>
       <c r="R9">
-        <v>2697.630522955887</v>
+        <v>26644.83194701249</v>
       </c>
       <c r="S9">
-        <v>0.05147748750408657</v>
+        <v>0.04929996199833311</v>
       </c>
       <c r="T9">
-        <v>0.05147748750408657</v>
+        <v>0.04929996199833311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H10">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>953.2348215176935</v>
+        <v>1288.155009573042</v>
       </c>
       <c r="R10">
-        <v>953.2348215176935</v>
+        <v>11593.39508615738</v>
       </c>
       <c r="S10">
-        <v>0.01819008689128021</v>
+        <v>0.02145083663187844</v>
       </c>
       <c r="T10">
-        <v>0.01819008689128021</v>
+        <v>0.02145083663187845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H11">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I11">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J11">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>4798.748984027664</v>
+        <v>5243.32471076063</v>
       </c>
       <c r="R11">
-        <v>4798.748984027664</v>
+        <v>47189.92239684566</v>
       </c>
       <c r="S11">
-        <v>0.09157204396911092</v>
+        <v>0.08731379449100374</v>
       </c>
       <c r="T11">
-        <v>0.09157204396911092</v>
+        <v>0.08731379449100377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H12">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I12">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J12">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>4897.225401455261</v>
+        <v>6102.54792472598</v>
       </c>
       <c r="R12">
-        <v>4897.225401455261</v>
+        <v>54922.93132253382</v>
       </c>
       <c r="S12">
-        <v>0.09345121849076547</v>
+        <v>0.101621899226937</v>
       </c>
       <c r="T12">
-        <v>0.09345121849076547</v>
+        <v>0.1016218992269371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H13">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I13">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J13">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>1445.428708702174</v>
+        <v>1721.742093930629</v>
       </c>
       <c r="R13">
-        <v>1445.428708702174</v>
+        <v>15495.67884537566</v>
       </c>
       <c r="S13">
-        <v>0.02758236817721569</v>
+        <v>0.02867109012864499</v>
       </c>
       <c r="T13">
-        <v>0.02758236817721569</v>
+        <v>0.02867109012864499</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H14">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I14">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J14">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>464.7064803352143</v>
+        <v>630.9158097012979</v>
       </c>
       <c r="R14">
-        <v>464.7064803352143</v>
+        <v>5678.242287311682</v>
       </c>
       <c r="S14">
-        <v>0.008867753323131874</v>
+        <v>0.01050624487099388</v>
       </c>
       <c r="T14">
-        <v>0.008867753323131874</v>
+        <v>0.01050624487099389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H15">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I15">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J15">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>2339.412807884179</v>
+        <v>2568.088802071136</v>
       </c>
       <c r="R15">
-        <v>2339.412807884179</v>
+        <v>23112.79921864023</v>
       </c>
       <c r="S15">
-        <v>0.04464180419073912</v>
+        <v>0.04276477049733565</v>
       </c>
       <c r="T15">
-        <v>0.04464180419073912</v>
+        <v>0.04276477049733567</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H16">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I16">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J16">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>2387.420526764967</v>
+        <v>2988.921315025286</v>
       </c>
       <c r="R16">
-        <v>2387.420526764967</v>
+        <v>26900.29183522758</v>
       </c>
       <c r="S16">
-        <v>0.04555791065074372</v>
+        <v>0.04977263012422511</v>
       </c>
       <c r="T16">
-        <v>0.04555791065074372</v>
+        <v>0.04977263012422514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H17">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I17">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J17">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>704.6533263724184</v>
+        <v>843.2791855144018</v>
       </c>
       <c r="R17">
-        <v>704.6533263724184</v>
+        <v>7589.512669629616</v>
       </c>
       <c r="S17">
-        <v>0.01344653483654343</v>
+        <v>0.0140425988402813</v>
       </c>
       <c r="T17">
-        <v>0.01344653483654343</v>
+        <v>0.0140425988402813</v>
       </c>
     </row>
   </sheetData>
